--- a/biology/Zoologie/Gehyra/Gehyra.xlsx
+++ b/biology/Zoologie/Gehyra/Gehyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gehyra est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gehyra est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie et en Asie du Sud-Est[1]. Gehyra mutilata est pan-tropicale par introduction.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie et en Asie du Sud-Est. Gehyra mutilata est pan-tropicale par introduction.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos arboricoles.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 juin 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 juin 2020) :
 Gehyra angusticaudata (Taylor, 1963)
 Gehyra arnhemica Oliver, Prasetya, Tedeschi, Fenker, Ellis, Doughty &amp; Moritz, 2020
 Gehyra australis (Gray, 1845)
@@ -672,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1834 : Characters of two new genera of reptiles (Geoemyda and Gehyra). Proceedings of the Zoological Society of London, vol. 1834, p. 99-100 (texte intégral).</t>
         </is>
